--- a/1 - Analysis/gantt chart assignment.xlsx
+++ b/1 - Analysis/gantt chart assignment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cityofedinburgheducation-my.sharepoint.com/personal/130679900_ea_edin_sch_uk/Documents/Adv Higher/Computing Science/Advanced higher assignment/adv-higher-assignment/1 - Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\130679900\OneDrive - The City of Edinburgh Council\Adv Higher\Computing Science\Advanced higher assignment\adv-higher-assignment\1 - Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{95092B08-39CE-4B5D-98B5-D27AAFAC661D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{570905EA-8CFD-4059-ACCD-D1FD0E212D14}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="8_{95092B08-39CE-4B5D-98B5-D27AAFAC661D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5912F15F-E3DE-43FE-B9AD-98752A47431E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{2A63E57A-990D-4FFA-A580-DEDD007CB7C3}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Task</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Evaluation</t>
   </si>
   <si>
-    <t>Documentation</t>
-  </si>
-  <si>
     <t>Read specification and think of idea</t>
   </si>
   <si>
@@ -77,23 +74,59 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>1 day</t>
-  </si>
-  <si>
-    <t>2 days</t>
-  </si>
-  <si>
     <t>Target date</t>
   </si>
   <si>
     <t>Finish Project Plan</t>
+  </si>
+  <si>
+    <t>Create Wireframe of website</t>
+  </si>
+  <si>
+    <t>Create Data Dictionary of array</t>
+  </si>
+  <si>
+    <t>Create pseudocode for program</t>
+  </si>
+  <si>
+    <t>Create pseudocode for server-side</t>
+  </si>
+  <si>
+    <t>Code program</t>
+  </si>
+  <si>
+    <t>Code server-side</t>
+  </si>
+  <si>
+    <t>Code basic website structure</t>
+  </si>
+  <si>
+    <t>Holidays</t>
+  </si>
+  <si>
+    <t>Code website look and CSS</t>
+  </si>
+  <si>
+    <t>Create test plan</t>
+  </si>
+  <si>
+    <t>Test program</t>
+  </si>
+  <si>
+    <t>Evaluate testing with problems faced</t>
+  </si>
+  <si>
+    <t>Write Evaluation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,16 +134,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -118,20 +164,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -144,6 +311,1168 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Analysis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Read specification and think of idea</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Write outline of project</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Write scopes and boundaries</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Draw UML Case Diagram</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Write functional and end-user requirements</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Create a gantt chart</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Finish Project Plan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Design</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Create Wireframe of website</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Create pseudocode for program</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Create pseudocode for server-side</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Create Data Dictionary of array</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Implementation</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Code basic website structure</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Code program</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Code server-side</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Code website look and CSS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Create test plan</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Test program</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Evaluate testing with problems faced</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Evaluation</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Write Evaluation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="1">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="dd/mm/yyyy;@">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="dd/mm/yyyy;@">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="dd/mm/yyyy;@">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="dd/mm/yyyy;@">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44215</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44229</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B8E-401F-A62F-DE04239CF5CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Analysis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Read specification and think of idea</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Write outline of project</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Write scopes and boundaries</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Draw UML Case Diagram</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Write functional and end-user requirements</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Create a gantt chart</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Finish Project Plan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Design</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Create Wireframe of website</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Create pseudocode for program</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Create pseudocode for server-side</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Create Data Dictionary of array</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Implementation</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Code basic website structure</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Code program</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Code server-side</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Code website look and CSS</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Create test plan</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Test program</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Evaluate testing with problems faced</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Evaluation</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Write Evaluation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6B8E-401F-A62F-DE04239CF5CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="708434952"/>
+        <c:axId val="708435936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="708434952"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="708435936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="708435936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="44237"/>
+          <c:min val="44112"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="708434952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>885824</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD50F07-285D-4183-9ACD-040B5F82DB9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668FA775-6286-4BDC-918C-7E5C34C2764D}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,157 +1792,482 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="13"/>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>44112</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <f>WORKDAY(C3, D3)</f>
+        <v>44113</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="14"/>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>44116</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4" s="2">
+        <f t="shared" ref="E4:E19" si="0">WORKDAY(C4, D4)</f>
         <v>44117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="14"/>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>44117</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5" s="2">
+        <f t="shared" si="0"/>
         <v>44118</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="14"/>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>44118</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6" s="2">
+        <f t="shared" si="0"/>
         <v>44119</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="14"/>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>44119</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7" s="2">
+        <f t="shared" si="0"/>
         <v>44120</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>44133</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
+      <c r="D8">
+        <v>2</v>
       </c>
       <c r="E8" s="2">
+        <f t="shared" si="0"/>
         <v>44137</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="15"/>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>44137</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9" s="2">
+        <f t="shared" si="0"/>
         <v>44138</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="10">
+        <v>44138</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>44145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10">
+        <v>44145</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44154</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="10">
+        <v>44165</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>44168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44168</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <f>WORKDAY(C16, D16, B32:B44)</f>
+        <v>44173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44173</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2">
+        <f>WORKDAY(C17, D17, B32:B44)</f>
+        <v>44204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44204</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2">
+        <f>WORKDAY(C18, D18, B32:B44)</f>
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44215</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2">
+        <f>WORKDAY(C19, D19, B32:B44)</f>
+        <v>44224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44224</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <f>WORKDAY(C21, D21)</f>
+        <v>44229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44229</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <f>WORKDAY(C22, D22)</f>
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44232</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <f>WORKDAY(C23, D23)</f>
+        <v>44235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>7</v>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44235</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <f>WORKDAY(C25, D25)</f>
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>44188</v>
+      </c>
+      <c r="C32" s="11">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>44189</v>
+      </c>
+      <c r="C33" s="11">
+        <v>44224</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>44190</v>
+      </c>
+      <c r="C34" s="11">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>44556</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>44192</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>44193</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>44194</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>44199</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>44200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>44201</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="10">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010076747074E2513A4DBB3E833FCD060A98" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1692344d89ab238e8c88ce286045a9a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d0e2927a-9461-441e-b9ba-994b3ff7ff0a" xmlns:ns4="80674ce4-d3c9-4099-b423-4968da5fbd55" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="baf603086c77b6d8034d5672e27c7f4f" ns3:_="" ns4:_="">
     <xsd:import namespace="d0e2927a-9461-441e-b9ba-994b3ff7ff0a"/>
@@ -836,22 +2490,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53676D83-24BE-415B-AB7E-287C5FFF897F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="80674ce4-d3c9-4099-b423-4968da5fbd55"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d0e2927a-9461-441e-b9ba-994b3ff7ff0a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C89826FA-901D-4F8D-BF3B-3104654213D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55C1FA14-1C6A-4346-97FC-013D4E240A38}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -868,29 +2532,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C89826FA-901D-4F8D-BF3B-3104654213D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53676D83-24BE-415B-AB7E-287C5FFF897F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="80674ce4-d3c9-4099-b423-4968da5fbd55"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d0e2927a-9461-441e-b9ba-994b3ff7ff0a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/1 - Analysis/gantt chart assignment.xlsx
+++ b/1 - Analysis/gantt chart assignment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\130679900\OneDrive - The City of Edinburgh Council\Adv Higher\Computing Science\Advanced higher assignment\adv-higher-assignment\1 - Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cityofedinburgheducation-my.sharepoint.com/personal/130679900_ea_edin_sch_uk/Documents/Adv Higher/Computing Science/Advanced higher assignment/adv-higher-assignment/1 - Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="315" documentId="8_{95092B08-39CE-4B5D-98B5-D27AAFAC661D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5912F15F-E3DE-43FE-B9AD-98752A47431E}"/>
+  <xr:revisionPtr revIDLastSave="316" documentId="8_{95092B08-39CE-4B5D-98B5-D27AAFAC661D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C64EDBF2-F7A7-4F45-A1EE-5123EFAD545D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{2A63E57A-990D-4FFA-A580-DEDD007CB7C3}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>Create a gantt chart</t>
   </si>
   <si>
-    <t>Duration</t>
-  </si>
-  <si>
     <t>Target date</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>Write Evaluation</t>
+  </si>
+  <si>
+    <t>Duration(Days)</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -262,12 +262,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,21 +292,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -517,7 +517,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Duration</c:v>
+                  <c:v>Duration(Days)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1774,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668FA775-6286-4BDC-918C-7E5C34C2764D}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,22 +1792,22 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="9"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -1823,7 +1823,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -1834,12 +1834,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E19" si="0">WORKDAY(C4, D4)</f>
+        <f t="shared" ref="E4:E14" si="0">WORKDAY(C4, D4)</f>
         <v>44117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1855,7 +1855,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1871,7 +1871,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1887,7 +1887,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -1903,9 +1903,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="11"/>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>44137</v>
@@ -1919,19 +1919,19 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="15"/>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="10">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4">
         <v>44138</v>
       </c>
       <c r="D11">
@@ -1943,11 +1943,11 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="15"/>
       <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4">
         <v>44145</v>
       </c>
       <c r="D12">
@@ -1959,11 +1959,11 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="15"/>
       <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="10">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4">
         <v>44154</v>
       </c>
       <c r="D13">
@@ -1975,11 +1975,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="15"/>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="10">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4">
         <v>44165</v>
       </c>
       <c r="D14">
@@ -1991,17 +1991,17 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="8"/>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1">
         <v>44168</v>
@@ -2015,9 +2015,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="8"/>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <v>44173</v>
@@ -2031,9 +2031,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="8"/>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>44204</v>
@@ -2047,9 +2047,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="8"/>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
         <v>44215</v>
@@ -2063,17 +2063,17 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
         <v>44224</v>
@@ -2087,9 +2087,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1">
         <v>44229</v>
@@ -2103,9 +2103,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="6"/>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
         <v>44232</v>
@@ -2119,17 +2119,17 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
         <v>44235</v>
@@ -2143,27 +2143,27 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E27" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="11"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>23</v>
+      <c r="B31" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>44188</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="5">
         <v>44112</v>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       <c r="B33" s="1">
         <v>44189</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="5">
         <v>44224</v>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       <c r="B34" s="1">
         <v>44190</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="5">
         <v>44237</v>
       </c>
     </row>
@@ -2235,16 +2235,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2253,18 +2253,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2491,26 +2491,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53676D83-24BE-415B-AB7E-287C5FFF897F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C89826FA-901D-4F8D-BF3B-3104654213D4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="80674ce4-d3c9-4099-b423-4968da5fbd55"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d0e2927a-9461-441e-b9ba-994b3ff7ff0a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C89826FA-901D-4F8D-BF3B-3104654213D4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53676D83-24BE-415B-AB7E-287C5FFF897F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="80674ce4-d3c9-4099-b423-4968da5fbd55"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d0e2927a-9461-441e-b9ba-994b3ff7ff0a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/1 - Analysis/gantt chart assignment.xlsx
+++ b/1 - Analysis/gantt chart assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cityofedinburgheducation-my.sharepoint.com/personal/130679900_ea_edin_sch_uk/Documents/Adv Higher/Computing Science/Advanced higher assignment/adv-higher-assignment/1 - Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="316" documentId="8_{95092B08-39CE-4B5D-98B5-D27AAFAC661D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C64EDBF2-F7A7-4F45-A1EE-5123EFAD545D}"/>
+  <xr:revisionPtr revIDLastSave="318" documentId="8_{95092B08-39CE-4B5D-98B5-D27AAFAC661D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0A7DE0B0-512E-4A7A-A3B9-4A5A4A06A18B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{2A63E57A-990D-4FFA-A580-DEDD007CB7C3}"/>
   </bookViews>
@@ -86,15 +86,9 @@
     <t>Create pseudocode for program</t>
   </si>
   <si>
-    <t>Create pseudocode for server-side</t>
-  </si>
-  <si>
     <t>Code program</t>
   </si>
   <si>
-    <t>Code server-side</t>
-  </si>
-  <si>
     <t>Code basic website structure</t>
   </si>
   <si>
@@ -117,6 +111,12 @@
   </si>
   <si>
     <t>Duration(Days)</t>
+  </si>
+  <si>
+    <t>Create pseudocode for website</t>
+  </si>
+  <si>
+    <t>Code rest of website</t>
   </si>
 </sst>
 </file>
@@ -265,15 +265,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -293,7 +284,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -395,7 +395,7 @@
                   <c:v>Create pseudocode for program</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Create pseudocode for server-side</c:v>
+                  <c:v>Create pseudocode for website</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Create Data Dictionary of array</c:v>
@@ -410,7 +410,7 @@
                   <c:v>Code program</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Code server-side</c:v>
+                  <c:v>Code rest of website</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Code website look and CSS</c:v>
@@ -571,7 +571,7 @@
                   <c:v>Create pseudocode for program</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Create pseudocode for server-side</c:v>
+                  <c:v>Create pseudocode for website</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Create Data Dictionary of array</c:v>
@@ -586,7 +586,7 @@
                   <c:v>Code program</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Code server-side</c:v>
+                  <c:v>Code rest of website</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Code website look and CSS</c:v>
@@ -1775,7 +1775,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,22 +1792,22 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -1823,7 +1823,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -1839,7 +1839,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1855,7 +1855,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1871,7 +1871,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1887,7 +1887,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -1903,7 +1903,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="8"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -1919,15 +1919,15 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="13"/>
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -1943,7 +1943,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="13"/>
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -1959,9 +1959,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="13"/>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4">
         <v>44154</v>
@@ -1975,7 +1975,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="13"/>
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1991,17 +1991,17 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="15"/>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>44168</v>
@@ -2015,9 +2015,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="15"/>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
         <v>44173</v>
@@ -2031,9 +2031,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="15"/>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
         <v>44204</v>
@@ -2047,9 +2047,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="A19" s="15"/>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <v>44215</v>
@@ -2063,17 +2063,17 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="12"/>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
         <v>44224</v>
@@ -2087,9 +2087,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="12"/>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
         <v>44229</v>
@@ -2103,9 +2103,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="12"/>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
         <v>44232</v>
@@ -2119,17 +2119,17 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
         <v>44235</v>
@@ -2143,10 +2143,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E27" s="1"/>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2235,16 +2235,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2253,18 +2253,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2491,26 +2491,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C89826FA-901D-4F8D-BF3B-3104654213D4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53676D83-24BE-415B-AB7E-287C5FFF897F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="80674ce4-d3c9-4099-b423-4968da5fbd55"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d0e2927a-9461-441e-b9ba-994b3ff7ff0a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53676D83-24BE-415B-AB7E-287C5FFF897F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C89826FA-901D-4F8D-BF3B-3104654213D4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="80674ce4-d3c9-4099-b423-4968da5fbd55"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d0e2927a-9461-441e-b9ba-994b3ff7ff0a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/1 - Analysis/gantt chart assignment.xlsx
+++ b/1 - Analysis/gantt chart assignment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cityofedinburgheducation-my.sharepoint.com/personal/130679900_ea_edin_sch_uk/Documents/Adv Higher/Computing Science/Advanced higher assignment/adv-higher-assignment/1 - Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="318" documentId="8_{95092B08-39CE-4B5D-98B5-D27AAFAC661D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0A7DE0B0-512E-4A7A-A3B9-4A5A4A06A18B}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="8_{95092B08-39CE-4B5D-98B5-D27AAFAC661D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CC5075CC-474B-46CE-9963-83ABE2E7CCBD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{2A63E57A-990D-4FFA-A580-DEDD007CB7C3}"/>
+    <workbookView xWindow="14010" yWindow="0" windowWidth="14790" windowHeight="16200" xr2:uid="{2A63E57A-990D-4FFA-A580-DEDD007CB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -50,9 +54,6 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>Evaluation</t>
-  </si>
-  <si>
     <t>Read specification and think of idea</t>
   </si>
   <si>
@@ -105,9 +106,6 @@
   </si>
   <si>
     <t>Evaluate testing with problems faced</t>
-  </si>
-  <si>
-    <t>Write Evaluation</t>
   </si>
   <si>
     <t>Duration(Days)</t>
@@ -258,13 +256,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -284,17 +291,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,7 +359,7 @@
             <c:strRef>
               <c:f>Sheet1!$B$2:$B$25</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>Analysis</c:v>
                 </c:pt>
@@ -426,12 +425,6 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Evaluate testing with problems faced</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Evaluation</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Write Evaluation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -495,9 +488,6 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44232</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -536,7 +526,7 @@
             <c:strRef>
               <c:f>Sheet1!$B$2:$B$25</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>Analysis</c:v>
                 </c:pt>
@@ -602,12 +592,6 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Evaluate testing with problems faced</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Evaluation</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Write Evaluation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -658,7 +642,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>7</c:v>
@@ -671,9 +655,6 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1774,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668FA775-6286-4BDC-918C-7E5C34C2764D}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,24 +1773,24 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="9"/>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>44112</v>
@@ -1823,9 +1804,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>44116</v>
@@ -1839,9 +1820,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>44117</v>
@@ -1855,9 +1836,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>44118</v>
@@ -1871,9 +1852,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>44119</v>
@@ -1887,9 +1868,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>44133</v>
@@ -1903,9 +1884,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="11"/>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>44137</v>
@@ -1919,17 +1900,17 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="15"/>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4">
         <v>44138</v>
@@ -1943,9 +1924,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="15"/>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4">
         <v>44145</v>
@@ -1959,9 +1940,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="15"/>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4">
         <v>44154</v>
@@ -1975,9 +1956,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="15"/>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4">
         <v>44165</v>
@@ -1991,17 +1972,17 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="8"/>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <v>44168</v>
@@ -2015,9 +1996,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="8"/>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
         <v>44173</v>
@@ -2031,25 +2012,25 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="8"/>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
         <v>44204</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E18" s="2">
         <f>WORKDAY(C18, D18, B32:B44)</f>
-        <v>44215</v>
+        <v>44224</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="8"/>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
         <v>44215</v>
@@ -2063,17 +2044,17 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
         <v>44224</v>
@@ -2087,9 +2068,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
         <v>44229</v>
@@ -2103,9 +2084,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="6"/>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
         <v>44232</v>
@@ -2119,34 +2100,16 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1">
-        <v>44235</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2">
-        <f>WORKDAY(C25, D25)</f>
-        <v>44237</v>
-      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E27" s="1"/>
@@ -2156,7 +2119,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2235,16 +2198,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B15:E15"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2253,21 +2216,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010076747074E2513A4DBB3E833FCD060A98" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1692344d89ab238e8c88ce286045a9a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d0e2927a-9461-441e-b9ba-994b3ff7ff0a" xmlns:ns4="80674ce4-d3c9-4099-b423-4968da5fbd55" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="baf603086c77b6d8034d5672e27c7f4f" ns3:_="" ns4:_="">
     <xsd:import namespace="d0e2927a-9461-441e-b9ba-994b3ff7ff0a"/>
@@ -2490,32 +2438,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53676D83-24BE-415B-AB7E-287C5FFF897F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="80674ce4-d3c9-4099-b423-4968da5fbd55"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d0e2927a-9461-441e-b9ba-994b3ff7ff0a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C89826FA-901D-4F8D-BF3B-3104654213D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55C1FA14-1C6A-4346-97FC-013D4E240A38}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2532,4 +2470,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C89826FA-901D-4F8D-BF3B-3104654213D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53676D83-24BE-415B-AB7E-287C5FFF897F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="80674ce4-d3c9-4099-b423-4968da5fbd55"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d0e2927a-9461-441e-b9ba-994b3ff7ff0a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>